--- a/GroupSimilarityTask/data.xlsx
+++ b/GroupSimilarityTask/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr checkCompatibility="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ale\Documents\school\approxmapR-master\ProjectAH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catacora/Documents/Paths Up/approxmapR/GroupSimilarityTask/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18E600C9-70D9-42F6-9637-3F2B46D1829B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0ABFC-20FB-894E-AE0C-18E301202B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" tabRatio="832" firstSheet="1" activeTab="10" xr2:uid="{800D046F-F430-434C-B6D4-9CF84D5962C3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="14400" windowHeight="15600" tabRatio="832" firstSheet="7" activeTab="8" xr2:uid="{800D046F-F430-434C-B6D4-9CF84D5962C3}"/>
   </bookViews>
   <sheets>
     <sheet name="originalDataset" sheetId="3" r:id="rId1"/>
@@ -22,11 +22,8 @@
     <sheet name="SimilarDataset Results" sheetId="6" r:id="rId7"/>
     <sheet name="oppositeDataset" sheetId="7" r:id="rId8"/>
     <sheet name="OppositeDataset Results" sheetId="8" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -305,60 +302,6 @@
   </si>
   <si>
     <t>New Dataset</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>avg dist</t>
-  </si>
-  <si>
-    <t>C1 +C1</t>
-  </si>
-  <si>
-    <t>C1+C2</t>
-  </si>
-  <si>
-    <t>opposite Data</t>
-  </si>
-  <si>
-    <t>Original Data</t>
-  </si>
-  <si>
-    <t>Dataset1+Dataset 2</t>
-  </si>
-  <si>
-    <t>within dist calculation</t>
-  </si>
-  <si>
-    <t>within calculations</t>
-  </si>
-  <si>
-    <t>original vs oppoosite</t>
-  </si>
-  <si>
-    <t>customData</t>
-  </si>
-  <si>
-    <t>IJKQM</t>
-  </si>
-  <si>
-    <t>AJPKLM</t>
-  </si>
-  <si>
-    <t>ILM</t>
-  </si>
-  <si>
-    <t>IJKLM</t>
   </si>
 </sst>
 </file>
@@ -486,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -505,10 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,9 +768,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -853,7 +792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -864,7 +803,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -875,7 +814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -883,7 +822,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -891,7 +830,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -902,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -913,7 +852,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -924,7 +863,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -932,7 +871,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -940,7 +879,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -951,7 +890,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -962,7 +901,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -973,7 +912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -984,7 +923,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -992,7 +931,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1003,7 +942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -1014,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1025,7 +964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1036,7 +975,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -1044,7 +983,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1055,7 +994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1066,7 +1005,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1077,7 +1016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1088,7 +1027,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1099,7 +1038,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -1110,7 +1049,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -1121,7 +1060,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -1132,7 +1071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1143,7 +1082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -1151,7 +1090,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1162,7 +1101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1173,7 +1112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1181,7 +1120,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1189,7 +1128,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1197,7 +1136,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -1208,7 +1147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -1219,7 +1158,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -1227,7 +1166,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -1235,7 +1174,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -1243,7 +1182,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8</v>
       </c>
@@ -1254,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
@@ -1265,7 +1204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1276,7 +1215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1284,7 +1223,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -1292,7 +1231,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1303,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -1314,7 +1253,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -1325,7 +1264,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -1333,2883 +1272,13 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
       <c r="B51" s="1">
         <v>44075</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3200DC66-858C-4C28-991F-3E91499DC99D}">
-  <dimension ref="A1:Z76"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AB36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="16">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="16">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="16">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="16">
-        <v>4</v>
-      </c>
-      <c r="J5" s="16">
-        <v>5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5" t="s">
-        <v>86</v>
-      </c>
-      <c r="U5">
-        <v>3</v>
-      </c>
-      <c r="V5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5">
-        <v>4</v>
-      </c>
-      <c r="X5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="3">
-        <v>1</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="16">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>4</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="16">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="17">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="6"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="V10" s="16">
-        <v>1</v>
-      </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="6"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="R11" s="17">
-        <v>1</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="V11" s="17">
-        <v>1</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="X11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="9">
-        <v>1</v>
-      </c>
-      <c r="P12">
-        <v>10</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" s="18">
-        <v>1</v>
-      </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="18">
-        <v>0</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C13">
-        <f>SUM(C6:C12)</f>
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <f>SUM(E6:E12)</f>
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f>SUM(G6:G12)</f>
-        <v>3</v>
-      </c>
-      <c r="I13">
-        <f>SUM(I6:I12)</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>SUM(K6:K12)</f>
-        <v>6</v>
-      </c>
-      <c r="L13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P13" t="s">
-        <v>87</v>
-      </c>
-      <c r="R13">
-        <f>SUM(R6:R12)</f>
-        <v>4</v>
-      </c>
-      <c r="V13">
-        <f>SUM(V6:V12)</f>
-        <v>3</v>
-      </c>
-      <c r="X13">
-        <f>SUM(X6:X12)</f>
-        <v>2</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14">
-        <f>C13/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E14">
-        <f>E13/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G14">
-        <f>G13/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="K14">
-        <f>K13/7</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L14">
-        <f>SUM(B14:K14)</f>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="M14">
-        <f>L14/4</f>
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="P14" t="s">
-        <v>89</v>
-      </c>
-      <c r="R14">
-        <f>R13/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V14">
-        <f>V13/5</f>
-        <v>0.6</v>
-      </c>
-      <c r="X14">
-        <f>X13/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="Y14">
-        <f>SUM(R14:X14)</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="Z14">
-        <f>Y14/3</f>
-        <v>0.55555555555555547</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19" t="s">
-        <v>39</v>
-      </c>
-      <c r="U19">
-        <v>3</v>
-      </c>
-      <c r="V19" t="s">
-        <v>43</v>
-      </c>
-      <c r="W19">
-        <v>5</v>
-      </c>
-      <c r="X19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>8</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X20" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="16"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>9</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>7</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R21" s="16">
-        <v>1</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T21" s="6">
-        <v>0</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V21" s="16">
-        <v>0</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="16"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22">
-        <f>SUM(C15:C21)</f>
-        <v>2</v>
-      </c>
-      <c r="G22">
-        <f>SUM(G15:G21)</f>
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <f>SUM(I15:I21)</f>
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>88</v>
-      </c>
-      <c r="K22" t="s">
-        <v>90</v>
-      </c>
-      <c r="P22">
-        <v>9</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="9">
-        <v>0</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="V22" s="8">
-        <v>0</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="X22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23">
-        <f>C22/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G23">
-        <f>G22/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I23">
-        <f>I22/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J23">
-        <f>SUM(B23:I23)</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="K23">
-        <f>J23/3</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="P23" t="s">
-        <v>87</v>
-      </c>
-      <c r="R23">
-        <f>SUM(R16:R22)</f>
-        <v>1</v>
-      </c>
-      <c r="T23">
-        <f>SUM(T16:T22)</f>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f>SUM(V16:V22)</f>
-        <v>1</v>
-      </c>
-      <c r="X23">
-        <f>SUM(X16:X22)</f>
-        <v>2</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="P24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R24">
-        <f>R23/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="T24">
-        <f>T23/2</f>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f>V23/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X24">
-        <f>X23/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="Y24">
-        <f>SUM(R24:X24)</f>
-        <v>1.5</v>
-      </c>
-      <c r="Z24">
-        <f>Y24/4</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="J28">
-        <f>M14+K23</f>
-        <v>1.0892857142857142</v>
-      </c>
-      <c r="K28">
-        <f>J28/2</f>
-        <v>0.5446428571428571</v>
-      </c>
-      <c r="P28">
-        <f>Z14+Z24</f>
-        <v>0.93055555555555547</v>
-      </c>
-      <c r="Q28">
-        <f>P28/2</f>
-        <v>0.46527777777777773</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="M31">
-        <f>K28+Q28</f>
-        <v>1.0099206349206349</v>
-      </c>
-    </row>
-    <row r="34" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="M34" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="M35">
-        <f>M31/2</f>
-        <v>0.50496031746031744</v>
-      </c>
-    </row>
-    <row r="47" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-    </row>
-    <row r="48" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-    </row>
-    <row r="49" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-    </row>
-    <row r="50" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-    </row>
-    <row r="51" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-    </row>
-    <row r="52" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-    </row>
-    <row r="53" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-    </row>
-    <row r="54" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-    </row>
-    <row r="55" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-      <c r="W55" s="16"/>
-    </row>
-    <row r="56" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-    </row>
-    <row r="57" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="17"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-    </row>
-    <row r="58" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-    </row>
-    <row r="59" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-      <c r="W59" s="16"/>
-    </row>
-    <row r="60" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-      <c r="W60" s="16"/>
-    </row>
-    <row r="61" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-      <c r="W61" s="16"/>
-    </row>
-    <row r="62" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-      <c r="W62" s="16"/>
-    </row>
-    <row r="63" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-      <c r="W63" s="16"/>
-    </row>
-    <row r="64" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-    </row>
-    <row r="65" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-      <c r="W65" s="16"/>
-    </row>
-    <row r="66" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-      <c r="W66" s="16"/>
-    </row>
-    <row r="67" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-      <c r="W67" s="16"/>
-    </row>
-    <row r="68" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-      <c r="W68" s="16"/>
-    </row>
-    <row r="69" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-    </row>
-    <row r="70" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-    </row>
-    <row r="71" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-    </row>
-    <row r="72" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-    </row>
-    <row r="73" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-      <c r="W73" s="16"/>
-    </row>
-    <row r="74" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-      <c r="W74" s="16"/>
-    </row>
-    <row r="75" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-      <c r="W75" s="16"/>
-    </row>
-    <row r="76" spans="9:23" x14ac:dyDescent="0.25">
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-      <c r="W76" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EB6BA9-0210-44DA-8DB2-BA5F492EAC4C}">
-  <dimension ref="A1:AB54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="16">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="16">
-        <v>4</v>
-      </c>
-      <c r="J2" s="16">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2">
-        <v>3</v>
-      </c>
-      <c r="V2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>4</v>
-      </c>
-      <c r="Y2">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="4">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="R4" s="6">
-        <v>1</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T4" s="6">
-        <v>0</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0</v>
-      </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="16">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>4</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="6">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="V5" s="6">
-        <v>1</v>
-      </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>5</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="6">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="6"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="16">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="6">
-        <v>2</v>
-      </c>
-      <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="6">
-        <v>1</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="6">
-        <v>1</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V8" s="6">
-        <v>0</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="9">
-        <v>1</v>
-      </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="V9" s="9">
-        <v>0</v>
-      </c>
-      <c r="W9" s="7"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10">
-        <f>SUM(C3:C9)</f>
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f>SUM(E3:E9)</f>
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <f>SUM(G3:G9)</f>
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <f>SUM(I3:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>SUM(K3:K9)</f>
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
-        <v>90</v>
-      </c>
-      <c r="P10" t="s">
-        <v>87</v>
-      </c>
-      <c r="R10">
-        <f>SUM(R3:R9)</f>
-        <v>4</v>
-      </c>
-      <c r="T10">
-        <f>SUM(T3:T9)</f>
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <f>SUM(V3:V9)</f>
-        <v>2</v>
-      </c>
-      <c r="X10">
-        <f>SUM(X3:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f>SUM(Z3:Z9)</f>
-        <v>3</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C11">
-        <f>C10/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E11">
-        <f>E10/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G11">
-        <f>G10/6</f>
-        <v>0.5</v>
-      </c>
-      <c r="K11">
-        <f>K10/7</f>
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L11">
-        <f>SUM(B11:K11)</f>
-        <v>2.3571428571428572</v>
-      </c>
-      <c r="M11">
-        <f>L11/4</f>
-        <v>0.5892857142857143</v>
-      </c>
-      <c r="P11" t="s">
-        <v>89</v>
-      </c>
-      <c r="R11">
-        <f>R10/7</f>
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="T11">
-        <f>T10/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V11">
-        <f>V10/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="Z11">
-        <f>Z10/5</f>
-        <v>0.6</v>
-      </c>
-      <c r="AA11">
-        <f>SUM(R11:Z11)</f>
-        <v>1.9047619047619047</v>
-      </c>
-      <c r="AB11">
-        <f>AA11/4</f>
-        <v>0.47619047619047616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16">
-        <v>2</v>
-      </c>
-      <c r="T16" t="s">
-        <v>20</v>
-      </c>
-      <c r="U16">
-        <v>3</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="16">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="4">
-        <v>0</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="4">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" s="4">
-        <v>0</v>
-      </c>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="9">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>7</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="T18" s="6">
-        <v>1</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V18" s="6">
-        <v>0</v>
-      </c>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19">
-        <f>SUM(C12:C18)</f>
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <f>SUM(G12:G18)</f>
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <f>SUM(I12:I18)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>88</v>
-      </c>
-      <c r="K19" t="s">
-        <v>90</v>
-      </c>
-      <c r="P19">
-        <v>9</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="9">
-        <v>1</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="T19" s="9">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="V19" s="9">
-        <v>1</v>
-      </c>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20">
-        <f>C19/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G20">
-        <f>G19/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="I20">
-        <f>I19/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J20">
-        <f>SUM(B20:I20)</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="K20">
-        <f>J20/3</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="P20" t="s">
-        <v>87</v>
-      </c>
-      <c r="R20">
-        <f>SUM(R17:R19)</f>
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <f>SUM(T17:T19)</f>
-        <v>2</v>
-      </c>
-      <c r="V20">
-        <f>SUM(V17:V19)</f>
-        <v>1</v>
-      </c>
-      <c r="W20" t="s">
-        <v>88</v>
-      </c>
-      <c r="X20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P21" t="s">
-        <v>89</v>
-      </c>
-      <c r="R21">
-        <f>R20/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="T21">
-        <f>T20/3</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="V21">
-        <f>V20/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W21">
-        <f>SUM(R21:V21)</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="X21">
-        <f>W21/3</f>
-        <v>0.55555555555555547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" t="s">
-        <v>89</v>
-      </c>
-      <c r="P24" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J25">
-        <f>M11+K20</f>
-        <v>1.0892857142857142</v>
-      </c>
-      <c r="K25">
-        <f>J25/2</f>
-        <v>0.5446428571428571</v>
-      </c>
-      <c r="P25">
-        <f>AB11+X21</f>
-        <v>1.0317460317460316</v>
-      </c>
-      <c r="Q25">
-        <f>P25/2</f>
-        <v>0.51587301587301582</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E27" s="19"/>
-      <c r="M27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="M28">
-        <f>K25+Q25</f>
-        <v>1.060515873015873</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <f>M28/2</f>
-        <v>0.53025793650793651</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16">
-        <f>6/3</f>
-        <v>2</v>
-      </c>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="16"/>
-      <c r="X36" s="16"/>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="16"/>
-      <c r="X37" s="16"/>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="16"/>
-      <c r="X38" s="16"/>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="16"/>
-      <c r="X39" s="16"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-      <c r="W40" s="16"/>
-      <c r="X40" s="16"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-      <c r="W42" s="16"/>
-      <c r="X42" s="16"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-      <c r="W43" s="16"/>
-      <c r="X43" s="16"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-      <c r="W44" s="16"/>
-      <c r="X44" s="16"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-      <c r="W45" s="16"/>
-      <c r="X45" s="16"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-      <c r="W46" s="16"/>
-      <c r="X46" s="16"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-      <c r="W47" s="16"/>
-      <c r="X47" s="16"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
-      <c r="X48" s="16"/>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
-      <c r="X49" s="16"/>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-      <c r="W51" s="16"/>
-      <c r="X51" s="16"/>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-      <c r="W52" s="16"/>
-      <c r="X52" s="16"/>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4224,9 +1293,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4248,7 +1317,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4259,7 +1328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4267,7 +1336,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4275,7 +1344,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -4283,7 +1352,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -4294,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -4305,7 +1374,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4316,7 +1385,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -4324,7 +1393,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4332,7 +1401,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4343,7 +1412,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4354,7 +1423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4365,7 +1434,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4376,7 +1445,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4384,7 +1453,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -4395,7 +1464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -4406,7 +1475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -4417,7 +1486,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -4425,7 +1494,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4433,7 +1502,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4444,7 +1513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -4455,7 +1524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -4466,7 +1535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -4477,7 +1546,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -4488,7 +1557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -4499,7 +1568,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -4510,7 +1579,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -4521,7 +1590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -4532,7 +1601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -4540,7 +1609,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -4551,7 +1620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -4562,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -4573,7 +1642,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -4584,7 +1653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7</v>
       </c>
@@ -4592,7 +1661,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4603,7 +1672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4614,7 +1683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -4625,7 +1694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -4633,7 +1702,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -4641,7 +1710,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -4652,7 +1721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -4663,7 +1732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -4671,7 +1740,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -4679,7 +1748,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -4687,7 +1756,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -4698,7 +1767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -4709,7 +1778,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -4720,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -4728,7 +1797,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -4743,15 +1812,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC71EE7-5AA5-4901-A88B-6F64BBE58E44}">
-  <dimension ref="B2:U36"/>
+  <dimension ref="B2:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L16" sqref="L16:AA37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -4771,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>4</v>
       </c>
@@ -4790,7 +1859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -4808,7 +1877,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -4826,7 +1895,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>7</v>
       </c>
@@ -4844,7 +1913,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -4864,7 +1933,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -4882,7 +1951,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -4894,7 +1963,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -4906,7 +1975,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -4921,7 +1990,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -4937,17 +2006,12 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="U18" s="16"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>1</v>
       </c>
@@ -4963,13 +2027,8 @@
       <c r="G19">
         <v>5</v>
       </c>
-      <c r="M19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="S19" s="16"/>
-      <c r="U19" s="16"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -4984,13 +2043,8 @@
       <c r="G20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="U20" s="16"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -5006,13 +2060,8 @@
       <c r="G21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="U21" s="16"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4</v>
       </c>
@@ -5025,13 +2074,8 @@
       <c r="G22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="U22" s="16"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1</v>
       </c>
@@ -5042,13 +2086,8 @@
       <c r="G23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="U23" s="16"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -5067,13 +2106,8 @@
       <c r="G24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="U24" s="16"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>6</v>
       </c>
@@ -5089,13 +2123,8 @@
       <c r="G25" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="U25" s="16"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>10</v>
       </c>
@@ -5111,7 +2140,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -5128,7 +2157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -5148,12 +2177,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>1</v>
       </c>
@@ -5167,7 +2196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>8</v>
       </c>
@@ -5181,12 +2210,8 @@
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="Q32" s="16"/>
-      <c r="S32" s="16"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>7</v>
       </c>
@@ -5202,12 +2227,8 @@
       <c r="F33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="S33" s="16"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>9</v>
       </c>
@@ -5219,12 +2240,8 @@
       <c r="F34" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="S34" s="16"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -5238,7 +2255,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -5268,9 +2285,9 @@
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +2298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5292,7 +2309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5303,7 +2320,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5311,7 +2328,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5319,7 +2336,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5327,7 +2344,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -5338,7 +2355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -5349,7 +2366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -5360,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -5371,7 +2388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -5379,7 +2396,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -5390,7 +2407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -5401,7 +2418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -5412,7 +2429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -5420,7 +2437,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -5428,7 +2445,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5439,7 +2456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5447,7 +2464,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5455,7 +2472,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5466,7 +2483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5474,7 +2491,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5485,7 +2502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -5496,7 +2513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -5504,7 +2521,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -5512,7 +2529,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -5520,7 +2537,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -5531,7 +2548,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -5542,7 +2559,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -5553,7 +2570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -5564,7 +2581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -5575,7 +2592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -5586,7 +2603,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -5597,7 +2614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>7</v>
       </c>
@@ -5608,7 +2625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -5616,7 +2633,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>7</v>
       </c>
@@ -5624,7 +2641,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8</v>
       </c>
@@ -5635,7 +2652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8</v>
       </c>
@@ -5646,7 +2663,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8</v>
       </c>
@@ -5657,7 +2674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8</v>
       </c>
@@ -5665,7 +2682,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
@@ -5673,7 +2690,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
@@ -5684,7 +2701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>9</v>
       </c>
@@ -5695,7 +2712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>9</v>
       </c>
@@ -5706,7 +2723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -5714,7 +2731,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>9</v>
       </c>
@@ -5722,7 +2739,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -5733,7 +2750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -5744,7 +2761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -5755,7 +2772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -5763,7 +2780,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -5784,14 +2801,14 @@
       <selection activeCell="C27" sqref="C27:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -5814,7 +2831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -5831,7 +2848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5849,7 +2866,7 @@
       </c>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>3</v>
       </c>
@@ -5864,7 +2881,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>4</v>
       </c>
@@ -5876,7 +2893,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>5</v>
       </c>
@@ -5888,7 +2905,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>6</v>
       </c>
@@ -5908,7 +2925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>7</v>
       </c>
@@ -5923,7 +2940,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>8</v>
       </c>
@@ -5938,7 +2955,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -5953,7 +2970,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>10</v>
       </c>
@@ -5969,12 +2986,12 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>1</v>
       </c>
@@ -5991,7 +3008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>1</v>
       </c>
@@ -6005,7 +3022,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>2</v>
       </c>
@@ -6022,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>3</v>
       </c>
@@ -6036,7 +3053,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>4</v>
       </c>
@@ -6049,7 +3066,7 @@
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>5</v>
       </c>
@@ -6061,7 +3078,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>6</v>
       </c>
@@ -6081,7 +3098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>7</v>
       </c>
@@ -6099,7 +3116,7 @@
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>24</v>
       </c>
@@ -6116,7 +3133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>27</v>
       </c>
@@ -6136,12 +3153,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1</v>
       </c>
@@ -6152,7 +3169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>8</v>
       </c>
@@ -6166,7 +3183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>9</v>
       </c>
@@ -6180,7 +3197,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>10</v>
       </c>
@@ -6194,7 +3211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>24</v>
       </c>
@@ -6208,7 +3225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
@@ -6239,9 +3256,9 @@
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -6263,7 +3280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -6274,7 +3291,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -6285,7 +3302,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6296,7 +3313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6307,7 +3324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -6318,7 +3335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -6329,7 +3346,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6340,7 +3357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -6348,7 +3365,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -6356,7 +3373,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -6367,7 +3384,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -6378,7 +3395,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -6389,7 +3406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -6400,7 +3417,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -6408,7 +3425,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -6419,7 +3436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -6430,7 +3447,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -6441,7 +3458,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -6452,7 +3469,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -6460,7 +3477,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -6471,7 +3488,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6482,7 +3499,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -6493,7 +3510,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -6504,7 +3521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -6515,7 +3532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -6526,7 +3543,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -6537,7 +3554,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -6548,7 +3565,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -6559,7 +3576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -6567,7 +3584,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -6578,7 +3595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -6589,7 +3606,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -6600,7 +3617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -6608,7 +3625,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -6616,7 +3633,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -6627,7 +3644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -6638,7 +3655,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -6646,7 +3663,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -6654,7 +3671,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -6662,7 +3679,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6673,7 +3690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
@@ -6684,7 +3701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6695,7 +3712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -6703,7 +3720,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6711,7 +3728,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -6722,7 +3739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -6733,7 +3750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -6744,7 +3761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -6752,7 +3769,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -6773,9 +3790,9 @@
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>74</v>
       </c>
@@ -6786,7 +3803,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -6824,7 +3841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>4</v>
       </c>
@@ -6858,7 +3875,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -6886,7 +3903,7 @@
       </c>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -6920,7 +3937,7 @@
       </c>
       <c r="O5" s="6"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>7</v>
       </c>
@@ -6954,7 +3971,7 @@
       </c>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -6992,7 +4009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -7026,7 +4043,7 @@
       </c>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -7051,7 +4068,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -7073,7 +4090,7 @@
       </c>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -7101,7 +4118,7 @@
       </c>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -7131,28 +4148,28 @@
       <c r="N12" s="8"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I17" s="11"/>
       <c r="J17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>1</v>
       </c>
@@ -7169,7 +4186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>2</v>
       </c>
@@ -7185,7 +4202,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>3</v>
       </c>
@@ -7202,7 +4219,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>4</v>
       </c>
@@ -7222,7 +4239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>1</v>
       </c>
@@ -7236,7 +4253,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>5</v>
       </c>
@@ -7256,7 +4273,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>6</v>
       </c>
@@ -7273,7 +4290,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>10</v>
       </c>
@@ -7287,7 +4304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -7305,7 +4322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>27</v>
       </c>
@@ -7325,12 +4342,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>1</v>
       </c>
@@ -7344,7 +4361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>8</v>
       </c>
@@ -7359,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>7</v>
       </c>
@@ -7376,7 +4393,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>9</v>
       </c>
@@ -7389,7 +4406,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>24</v>
       </c>
@@ -7403,7 +4420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -7433,9 +4450,9 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7446,7 +4463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4</v>
       </c>
@@ -7457,7 +4474,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4</v>
       </c>
@@ -7468,7 +4485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -7476,7 +4493,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7484,7 +4501,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7492,7 +4509,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7503,7 +4520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7514,7 +4531,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7525,7 +4542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7533,7 +4550,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7541,7 +4558,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -7552,7 +4569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -7563,7 +4580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -7574,7 +4591,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -7585,7 +4602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7593,7 +4610,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>7</v>
       </c>
@@ -7604,7 +4621,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7</v>
       </c>
@@ -7615,7 +4632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -7626,7 +4643,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>7</v>
       </c>
@@ -7637,7 +4654,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -7645,7 +4662,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5</v>
       </c>
@@ -7656,7 +4673,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -7664,7 +4681,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -7672,7 +4689,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -7680,7 +4697,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -7688,7 +4705,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -7699,7 +4716,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6</v>
       </c>
@@ -7710,7 +4727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -7721,7 +4738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6</v>
       </c>
@@ -7732,7 +4749,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -7740,7 +4757,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -7751,7 +4768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1</v>
       </c>
@@ -7762,7 +4779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
@@ -7770,7 +4787,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -7778,7 +4795,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1</v>
       </c>
@@ -7786,7 +4803,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -7797,7 +4814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9</v>
       </c>
@@ -7808,7 +4825,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>9</v>
       </c>
@@ -7819,7 +4836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9</v>
       </c>
@@ -7827,7 +4844,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>9</v>
       </c>
@@ -7835,7 +4852,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8</v>
       </c>
@@ -7846,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8</v>
       </c>
@@ -7857,7 +4874,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -7868,7 +4885,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8</v>
       </c>
@@ -7876,7 +4893,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -7884,7 +4901,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>10</v>
       </c>
@@ -7895,7 +4912,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -7906,7 +4923,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10</v>
       </c>
@@ -7917,7 +4934,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10</v>
       </c>
@@ -7925,7 +4942,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>10</v>
       </c>
@@ -7940,20 +4957,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6873CCF8-DE98-43F0-80F6-A435843AA61E}">
-  <dimension ref="B1:V39"/>
+  <dimension ref="B1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>53</v>
       </c>
@@ -7973,7 +4990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>4</v>
       </c>
@@ -7987,7 +5004,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8002,7 +5019,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>3</v>
       </c>
@@ -8020,7 +5037,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>7</v>
       </c>
@@ -8038,7 +5055,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>5</v>
       </c>
@@ -8047,7 +5064,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>6</v>
       </c>
@@ -8065,7 +5082,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1</v>
       </c>
@@ -8077,7 +5094,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>9</v>
       </c>
@@ -8092,7 +5109,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -8107,7 +5124,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -8123,7 +5140,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -8131,12 +5148,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>1</v>
       </c>
@@ -8149,15 +5166,8 @@
       <c r="F20">
         <v>4</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>2</v>
       </c>
@@ -8171,15 +5181,8 @@
       <c r="F21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>3</v>
       </c>
@@ -8195,15 +5198,8 @@
       <c r="F22" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="16"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>4</v>
       </c>
@@ -8213,15 +5209,8 @@
       <c r="F23" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="16"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8232,15 +5221,8 @@
         <v>44</v>
       </c>
       <c r="F24" s="6"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>5</v>
       </c>
@@ -8249,15 +5231,8 @@
         <v>82</v>
       </c>
       <c r="F25" s="6"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="16"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>6</v>
       </c>
@@ -8273,15 +5248,8 @@
       <c r="F26" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="16"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>10</v>
       </c>
@@ -8296,7 +5264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -8310,12 +5278,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>9</v>
       </c>
@@ -8323,7 +5291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>1</v>
       </c>
@@ -8336,14 +5304,8 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="V34" s="16"/>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>8</v>
       </c>
@@ -8357,14 +5319,8 @@
       <c r="F35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="V35" s="16"/>
-    </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>7</v>
       </c>
@@ -8377,17 +5333,11 @@
       <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="16" t="s">
+      <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="V36" s="16"/>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>9</v>
       </c>
@@ -8401,9 +5351,8 @@
       <c r="F37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>24</v>
       </c>
@@ -8419,13 +5368,11 @@
       <c r="F38" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>27</v>
       </c>
-      <c r="G39" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
